--- a/public/spritesheets/dunkbin_next_cosmetic.xlsx
+++ b/public/spritesheets/dunkbin_next_cosmetic.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Next_Cosmetic" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/public/spritesheets/dunkbin_next_cosmetic.xlsx
+++ b/public/spritesheets/dunkbin_next_cosmetic.xlsx
@@ -32,12 +32,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="5">
+  <numFmts count="1">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="[&gt;=10000]&quot;∞&quot;;[=1]0&quot; day&quot;;0&quot; days&quot;"/>
-    <numFmt numFmtId="165" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
-    <numFmt numFmtId="166" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd&quot; &quot;hh&quot;:&quot;mm&quot;:&quot;ss"/>
-    <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="1">
     <font>

--- a/public/spritesheets/dunkbin_next_cosmetic.xlsx
+++ b/public/spritesheets/dunkbin_next_cosmetic.xlsx
@@ -900,7 +900,7 @@
         <v>(unknown)</v>
       </c>
       <c r="E12" t="str">
-        <v>62 days</v>
+        <v>63 days</v>
       </c>
       <c r="F12" t="str">
         <v/>

--- a/public/spritesheets/dunkbin_next_cosmetic.xlsx
+++ b/public/spritesheets/dunkbin_next_cosmetic.xlsx
@@ -900,7 +900,7 @@
         <v>(unknown)</v>
       </c>
       <c r="E12" t="str">
-        <v>63 days</v>
+        <v>64 days</v>
       </c>
       <c r="F12" t="str">
         <v/>

--- a/public/spritesheets/dunkbin_next_cosmetic.xlsx
+++ b/public/spritesheets/dunkbin_next_cosmetic.xlsx
@@ -900,7 +900,7 @@
         <v>(unknown)</v>
       </c>
       <c r="E12" t="str">
-        <v>64 days</v>
+        <v>65 days</v>
       </c>
       <c r="F12" t="str">
         <v/>

--- a/public/spritesheets/dunkbin_next_cosmetic.xlsx
+++ b/public/spritesheets/dunkbin_next_cosmetic.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -554,7 +554,7 @@
         <v/>
       </c>
       <c r="G4">
-        <v>1081</v>
+        <v>822</v>
       </c>
       <c r="H4" t="str">
         <v/>
@@ -622,7 +622,7 @@
         <v/>
       </c>
     </row>
-    <row r="6">
+    <row r="6" xml:space="preserve">
       <c r="A6">
         <v>8</v>
       </c>
@@ -632,8 +632,9 @@
       <c r="C6" t="str">
         <v/>
       </c>
-      <c r="D6" t="str">
-        <v>Captain Panaka Star Wars</v>
+      <c r="D6" t="str" xml:space="preserve">
+        <v xml:space="preserve">Lelouch
+Code Geass</v>
       </c>
       <c r="E6" t="str">
         <v/>
@@ -686,7 +687,7 @@
         <v>Hat</v>
       </c>
       <c r="G7" t="str">
-        <v>https://cdn.discordapp.com/attachments/699111007649398865/1117700050886336552/Panaka_Hat.png</v>
+        <v>https://cdn.discordapp.com/attachments/699111007649398865/1048523933063843931/Dunk_Sweatling_Lelouch_HatHair_V2b_210x210.png</v>
       </c>
       <c r="H7" t="str">
         <v/>
@@ -774,7 +775,7 @@
         <v>Neck</v>
       </c>
       <c r="G9" t="str">
-        <v>https://cdn.discordapp.com/attachments/699111007649398865/1117700050689212426/Panaka_Outfit.png</v>
+        <v>https://cdn.discordapp.com/attachments/699111007649398865/1048523933399404614/Dunk_Sweatling_Lelouch_NeckClothes_V2b_210x210.png</v>
       </c>
       <c r="H9" t="str">
         <v/>
@@ -894,13 +895,13 @@
         <v/>
       </c>
       <c r="C12" t="str">
-        <v>lillava</v>
-      </c>
-      <c r="D12" t="str">
-        <v>(unknown)</v>
+        <v>omnipotent_0</v>
+      </c>
+      <c r="D12">
+        <v>42256416</v>
       </c>
       <c r="E12" t="str">
-        <v>65 days</v>
+        <v>257 days</v>
       </c>
       <c r="F12" t="str">
         <v/>
@@ -976,13 +977,13 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="str">
         <v/>
       </c>
       <c r="C14" t="str">
-        <v/>
+        <v>Omnipotent_0</v>
       </c>
       <c r="D14" t="str">
         <v/>
@@ -1009,62 +1010,106 @@
         <v/>
       </c>
       <c r="L14" t="str">
-        <v>shop item rows</v>
+        <v/>
       </c>
       <c r="M14" t="str">
-        <v>citb user(s)</v>
+        <v/>
       </c>
       <c r="N14" t="str">
-        <v>citb comment</v>
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <v>shop item rows</v>
+      </c>
+      <c r="M15" t="str">
+        <v>citb user(s)</v>
+      </c>
+      <c r="N15" t="str">
+        <v>citb comment</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
         <v>21</v>
       </c>
-      <c r="B15" t="str">
-        <v/>
-      </c>
-      <c r="C15" t="str">
-        <v/>
-      </c>
-      <c r="D15" t="str">
-        <v/>
-      </c>
-      <c r="E15" t="str">
-        <v/>
-      </c>
-      <c r="F15" t="str">
-        <v/>
-      </c>
-      <c r="G15" t="str">
-        <v/>
-      </c>
-      <c r="H15" t="str">
-        <v/>
-      </c>
-      <c r="I15" t="str">
-        <v/>
-      </c>
-      <c r="J15" t="str">
-        <v/>
-      </c>
-      <c r="K15" t="str">
-        <v/>
-      </c>
-      <c r="L15">
-        <v>1081</v>
-      </c>
-      <c r="M15" t="str">
-        <v/>
-      </c>
-      <c r="N15" t="str">
+      <c r="B16" t="str">
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+      <c r="L16">
+        <v>822</v>
+      </c>
+      <c r="M16" t="str">
+        <v/>
+      </c>
+      <c r="N16" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N16"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/spritesheets/dunkbin_next_cosmetic.xlsx
+++ b/public/spritesheets/dunkbin_next_cosmetic.xlsx
@@ -901,7 +901,7 @@
         <v>42256416</v>
       </c>
       <c r="E12" t="str">
-        <v>257 days</v>
+        <v>258 days</v>
       </c>
       <c r="F12" t="str">
         <v/>

--- a/public/spritesheets/dunkbin_next_cosmetic.xlsx
+++ b/public/spritesheets/dunkbin_next_cosmetic.xlsx
@@ -901,7 +901,7 @@
         <v>42256416</v>
       </c>
       <c r="E12" t="str">
-        <v>258 days</v>
+        <v>259 days</v>
       </c>
       <c r="F12" t="str">
         <v/>

--- a/public/spritesheets/dunkbin_next_cosmetic.xlsx
+++ b/public/spritesheets/dunkbin_next_cosmetic.xlsx
@@ -589,7 +589,7 @@
         <v/>
       </c>
       <c r="H5">
-        <v>822</v>
+        <v>232</v>
       </c>
       <c r="I5" t="str">
         <v/>
@@ -662,8 +662,8 @@
         <v/>
       </c>
       <c r="E7" t="str" xml:space="preserve">
-        <v xml:space="preserve">Lelouch
-Code Geass</v>
+        <v xml:space="preserve">Chaos Orb
+Path of Exile</v>
       </c>
       <c r="F7" t="str">
         <v/>
@@ -713,7 +713,7 @@
         <v>Hat</v>
       </c>
       <c r="H8" t="str">
-        <v>https://cdn.discordapp.com/attachments/699111007649398865/1048523933063843931/Dunk_Sweatling_Lelouch_HatHair_V2b_210x210.png</v>
+        <v>https://dunkbin.com/img/243.png</v>
       </c>
       <c r="I8" t="str">
         <v/>
@@ -795,7 +795,7 @@
         <v>Neck</v>
       </c>
       <c r="H10" t="str">
-        <v>https://cdn.discordapp.com/attachments/699111007649398865/1048523933399404614/Dunk_Sweatling_Lelouch_NeckClothes_V2b_210x210.png</v>
+        <v/>
       </c>
       <c r="I10" t="str">
         <v/>
@@ -906,13 +906,13 @@
         <v/>
       </c>
       <c r="D13" t="str">
-        <v>omnipotent_0</v>
+        <v>zakzak_channel</v>
       </c>
       <c r="E13">
-        <v>42256416</v>
+        <v>155860288</v>
       </c>
       <c r="F13" t="str">
-        <v>259 days</v>
+        <v>1009 days</v>
       </c>
       <c r="G13" t="str">
         <v/>
@@ -988,7 +988,7 @@
         <v/>
       </c>
       <c r="D15" t="str">
-        <v>Omnipotent_0</v>
+        <v>Galtz</v>
       </c>
       <c r="E15" t="str">
         <v/>

--- a/public/spritesheets/dunkbin_next_cosmetic.xlsx
+++ b/public/spritesheets/dunkbin_next_cosmetic.xlsx
@@ -397,41 +397,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>232</v>
+        <v>row_number</v>
       </c>
       <c r="B1" t="str">
-        <v>row_number</v>
+        <v>col_1</v>
       </c>
       <c r="C1" t="str">
-        <v>col_1</v>
+        <v>Type to search:</v>
       </c>
       <c r="D1" t="str">
-        <v>Type to search:</v>
+        <v>col_3</v>
       </c>
       <c r="E1" t="str">
-        <v>chaos orb</v>
+        <v>col_4</v>
       </c>
       <c r="F1" t="str">
-        <v>col_4</v>
+        <v>col_5</v>
       </c>
       <c r="G1" t="str">
-        <v>col_5</v>
+        <v>col_6</v>
       </c>
       <c r="H1" t="str">
-        <v>col_6</v>
+        <v>col_7</v>
       </c>
       <c r="I1" t="str">
-        <v>Chaos Orb</v>
+        <v>col_8</v>
       </c>
       <c r="J1" t="str">
-        <v>Galtz</v>
+        <v>col_9</v>
       </c>
       <c r="K1" t="str">
         <v>col_10</v>
@@ -442,16 +442,19 @@
       <c r="M1" t="str">
         <v>col_12</v>
       </c>
+      <c r="N1" t="str">
+        <v>col_13</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-      <c r="B2">
-        <v>2</v>
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="str">
+        <v/>
       </c>
       <c r="C2" t="str">
-        <v/>
+        <v>Here is the oldest cosmetic in the backlog by the least-recently added creator, along with any CITB redeems. Change the selector to see each in turn.</v>
       </c>
       <c r="D2" t="str">
         <v/>
@@ -466,7 +469,7 @@
         <v/>
       </c>
       <c r="H2" t="str">
-        <v>(deduct citb from ishkagal ^)</v>
+        <v/>
       </c>
       <c r="I2" t="str">
         <v/>
@@ -483,19 +486,22 @@
       <c r="M2" t="str">
         <v/>
       </c>
+      <c r="N2" t="str">
+        <v/>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v/>
-      </c>
-      <c r="B3">
-        <v>3</v>
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>If there is a red chip in the top right, select the first number in the list to see the current cosmetic  vvvvv</v>
       </c>
       <c r="D3" t="str">
-        <v>Here is the oldest cosmetic in the backlog by the least-recently added creator, along with any CITB redeems. Change the selector to see each in turn.</v>
+        <v/>
       </c>
       <c r="E3" t="str">
         <v/>
@@ -524,28 +530,31 @@
       <c r="M3" t="str">
         <v/>
       </c>
+      <c r="N3" t="str">
+        <v/>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v/>
-      </c>
-      <c r="B4">
-        <v>4</v>
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="str">
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v>If there is a red chip in the top right, select the first number in the list to see the current cosmetic  vvvvv</v>
+        <v>Shop candidates:</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>Select row to get info:</v>
       </c>
       <c r="F4" t="str">
         <v/>
       </c>
-      <c r="G4" t="str">
-        <v/>
+      <c r="G4">
+        <v>822</v>
       </c>
       <c r="H4" t="str">
         <v/>
@@ -565,31 +574,34 @@
       <c r="M4" t="str">
         <v/>
       </c>
+      <c r="N4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v/>
-      </c>
-      <c r="B5">
-        <v>5</v>
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="str">
+        <v/>
       </c>
       <c r="C5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>Preview</v>
       </c>
       <c r="D5" t="str">
-        <v>Shop candidates:</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
+        <v>Title/notes</v>
+      </c>
+      <c r="E5" t="str">
+        <v/>
       </c>
       <c r="F5" t="str">
-        <v>Select row to get info:</v>
+        <v>Image links</v>
       </c>
       <c r="G5" t="str">
         <v/>
       </c>
-      <c r="H5">
-        <v>232</v>
+      <c r="H5" t="str">
+        <v/>
       </c>
       <c r="I5" t="str">
         <v/>
@@ -606,28 +618,32 @@
       <c r="M5" t="str">
         <v/>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v/>
-      </c>
-      <c r="B6">
-        <v>7</v>
+      <c r="N5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="str">
+        <v/>
       </c>
       <c r="C6" t="str">
         <v/>
       </c>
-      <c r="D6" t="str">
-        <v>Preview</v>
+      <c r="D6" t="str" xml:space="preserve">
+        <v xml:space="preserve">Lelouch
+Code Geass</v>
       </c>
       <c r="E6" t="str">
-        <v>Title/notes</v>
+        <v/>
       </c>
       <c r="F6" t="str">
-        <v/>
+        <v>Full Head</v>
       </c>
       <c r="G6" t="str">
-        <v>Image links</v>
+        <v/>
       </c>
       <c r="H6" t="str">
         <v/>
@@ -647,13 +663,16 @@
       <c r="M6" t="str">
         <v/>
       </c>
-    </row>
-    <row r="7" xml:space="preserve">
-      <c r="A7" t="str">
-        <v/>
-      </c>
-      <c r="B7">
-        <v>8</v>
+      <c r="N6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" t="str">
+        <v/>
       </c>
       <c r="C7" t="str">
         <v/>
@@ -661,15 +680,14 @@
       <c r="D7" t="str">
         <v/>
       </c>
-      <c r="E7" t="str" xml:space="preserve">
-        <v xml:space="preserve">Chaos Orb
-Path of Exile</v>
+      <c r="E7" t="str">
+        <v/>
       </c>
       <c r="F7" t="str">
-        <v/>
+        <v>Hat</v>
       </c>
       <c r="G7" t="str">
-        <v>Full Head</v>
+        <v>https://cdn.discordapp.com/attachments/699111007649398865/1048523933063843931/Dunk_Sweatling_Lelouch_HatHair_V2b_210x210.png</v>
       </c>
       <c r="H7" t="str">
         <v/>
@@ -689,13 +707,16 @@
       <c r="M7" t="str">
         <v/>
       </c>
+      <c r="N7" t="str">
+        <v/>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
-        <v/>
-      </c>
-      <c r="B8">
-        <v>9</v>
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" t="str">
+        <v/>
       </c>
       <c r="C8" t="str">
         <v/>
@@ -707,13 +728,13 @@
         <v/>
       </c>
       <c r="F8" t="str">
-        <v/>
+        <v>Face</v>
       </c>
       <c r="G8" t="str">
-        <v>Hat</v>
+        <v/>
       </c>
       <c r="H8" t="str">
-        <v>https://dunkbin.com/img/243.png</v>
+        <v/>
       </c>
       <c r="I8" t="str">
         <v/>
@@ -730,13 +751,16 @@
       <c r="M8" t="str">
         <v/>
       </c>
+      <c r="N8" t="str">
+        <v/>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v/>
-      </c>
-      <c r="B9">
-        <v>10</v>
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" t="str">
+        <v/>
       </c>
       <c r="C9" t="str">
         <v/>
@@ -748,10 +772,10 @@
         <v/>
       </c>
       <c r="F9" t="str">
-        <v/>
+        <v>Neck</v>
       </c>
       <c r="G9" t="str">
-        <v>Face</v>
+        <v>https://cdn.discordapp.com/attachments/699111007649398865/1048523933399404614/Dunk_Sweatling_Lelouch_NeckClothes_V2b_210x210.png</v>
       </c>
       <c r="H9" t="str">
         <v/>
@@ -771,13 +795,16 @@
       <c r="M9" t="str">
         <v/>
       </c>
+      <c r="N9" t="str">
+        <v/>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v/>
-      </c>
-      <c r="B10">
-        <v>11</v>
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" t="str">
+        <v/>
       </c>
       <c r="C10" t="str">
         <v/>
@@ -789,10 +816,10 @@
         <v/>
       </c>
       <c r="F10" t="str">
-        <v/>
+        <v>Body</v>
       </c>
       <c r="G10" t="str">
-        <v>Neck</v>
+        <v/>
       </c>
       <c r="H10" t="str">
         <v/>
@@ -812,28 +839,31 @@
       <c r="M10" t="str">
         <v/>
       </c>
+      <c r="N10" t="str">
+        <v/>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
-        <v/>
-      </c>
-      <c r="B11">
-        <v>12</v>
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11" t="str">
+        <v/>
       </c>
       <c r="C11" t="str">
-        <v/>
+        <v>Creator</v>
       </c>
       <c r="D11" t="str">
-        <v/>
+        <v>Twitch ID</v>
       </c>
       <c r="E11" t="str">
-        <v/>
+        <v>How long have we been waiting?</v>
       </c>
       <c r="F11" t="str">
-        <v/>
+        <v>CITB Redeemer(s)</v>
       </c>
       <c r="G11" t="str">
-        <v>Body</v>
+        <v>Redeem Notes</v>
       </c>
       <c r="H11" t="str">
         <v/>
@@ -853,31 +883,34 @@
       <c r="M11" t="str">
         <v/>
       </c>
+      <c r="N11" t="str">
+        <v/>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v/>
-      </c>
-      <c r="B12">
-        <v>15</v>
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12" t="str">
+        <v/>
       </c>
       <c r="C12" t="str">
-        <v/>
-      </c>
-      <c r="D12" t="str">
-        <v>Creator</v>
+        <v>omnipotent_0</v>
+      </c>
+      <c r="D12">
+        <v>42256416</v>
       </c>
       <c r="E12" t="str">
-        <v>Twitch ID</v>
+        <v>259 days</v>
       </c>
       <c r="F12" t="str">
-        <v>How long have we been waiting?</v>
+        <v/>
       </c>
       <c r="G12" t="str">
-        <v>CITB Redeemer(s)</v>
+        <v/>
       </c>
       <c r="H12" t="str">
-        <v>Redeem Notes</v>
+        <v/>
       </c>
       <c r="I12" t="str">
         <v/>
@@ -894,25 +927,28 @@
       <c r="M12" t="str">
         <v/>
       </c>
+      <c r="N12" t="str">
+        <v/>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
-        <v/>
-      </c>
-      <c r="B13">
-        <v>16</v>
+      <c r="A13">
+        <v>18</v>
+      </c>
+      <c r="B13" t="str">
+        <v/>
       </c>
       <c r="C13" t="str">
-        <v/>
+        <v>Discord alias(es)</v>
       </c>
       <c r="D13" t="str">
-        <v>zakzak_channel</v>
-      </c>
-      <c r="E13">
-        <v>155860288</v>
+        <v>Add aliases and IDs to the UserLookup tab</v>
+      </c>
+      <c r="E13" t="str">
+        <v/>
       </c>
       <c r="F13" t="str">
-        <v>1009 days</v>
+        <v/>
       </c>
       <c r="G13" t="str">
         <v/>
@@ -935,22 +971,25 @@
       <c r="M13" t="str">
         <v/>
       </c>
+      <c r="N13" t="str">
+        <v/>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
-        <v/>
-      </c>
-      <c r="B14">
-        <v>18</v>
+      <c r="A14">
+        <v>19</v>
+      </c>
+      <c r="B14" t="str">
+        <v/>
       </c>
       <c r="C14" t="str">
-        <v/>
+        <v>Omnipotent_0</v>
       </c>
       <c r="D14" t="str">
-        <v>Discord alias(es)</v>
+        <v/>
       </c>
       <c r="E14" t="str">
-        <v>Add aliases and IDs to the UserLookup tab</v>
+        <v/>
       </c>
       <c r="F14" t="str">
         <v/>
@@ -976,19 +1015,22 @@
       <c r="M14" t="str">
         <v/>
       </c>
+      <c r="N14" t="str">
+        <v/>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
-        <v/>
-      </c>
-      <c r="B15">
-        <v>19</v>
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15" t="str">
+        <v/>
       </c>
       <c r="C15" t="str">
         <v/>
       </c>
       <c r="D15" t="str">
-        <v>Galtz</v>
+        <v/>
       </c>
       <c r="E15" t="str">
         <v/>
@@ -1012,18 +1054,21 @@
         <v/>
       </c>
       <c r="L15" t="str">
-        <v/>
+        <v>shop item rows</v>
       </c>
       <c r="M15" t="str">
-        <v/>
+        <v>citb user(s)</v>
+      </c>
+      <c r="N15" t="str">
+        <v>citb comment</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
-        <v/>
-      </c>
-      <c r="B16">
-        <v>20</v>
+      <c r="A16">
+        <v>21</v>
+      </c>
+      <c r="B16" t="str">
+        <v/>
       </c>
       <c r="C16" t="str">
         <v/>
@@ -1050,101 +1095,21 @@
         <v/>
       </c>
       <c r="K16" t="str">
-        <v>shop item rows</v>
-      </c>
-      <c r="L16" t="str">
-        <v>citb user(s)</v>
+        <v/>
+      </c>
+      <c r="L16">
+        <v>822</v>
       </c>
       <c r="M16" t="str">
-        <v>citb comment</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v/>
-      </c>
-      <c r="B17">
-        <v>21</v>
-      </c>
-      <c r="C17" t="str">
-        <v/>
-      </c>
-      <c r="D17" t="str">
-        <v/>
-      </c>
-      <c r="E17" t="str">
-        <v/>
-      </c>
-      <c r="F17" t="str">
-        <v/>
-      </c>
-      <c r="G17" t="str">
-        <v/>
-      </c>
-      <c r="H17" t="str">
-        <v/>
-      </c>
-      <c r="I17" t="str">
-        <v/>
-      </c>
-      <c r="J17" t="str">
-        <v/>
-      </c>
-      <c r="K17">
-        <v>822</v>
-      </c>
-      <c r="L17" t="str">
-        <v/>
-      </c>
-      <c r="M17" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="18" xml:space="preserve">
-      <c r="A18" t="str">
-        <v/>
-      </c>
-      <c r="B18">
-        <v>22</v>
-      </c>
-      <c r="C18" t="str">
-        <v/>
-      </c>
-      <c r="D18" t="str">
-        <v/>
-      </c>
-      <c r="E18" t="str">
-        <v/>
-      </c>
-      <c r="F18" t="str">
-        <v/>
-      </c>
-      <c r="G18" t="str">
-        <v/>
-      </c>
-      <c r="H18" t="str">
-        <v/>
-      </c>
-      <c r="I18" t="str">
-        <v/>
-      </c>
-      <c r="J18" t="str">
-        <v/>
-      </c>
-      <c r="K18">
-        <v>232</v>
-      </c>
-      <c r="L18" t="str" xml:space="preserve">
-        <v xml:space="preserve">Chaos Orb
-Path of Exile</v>
-      </c>
-      <c r="M18" t="str">
-        <v>Galtz</v>
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N16"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/spritesheets/dunkbin_next_cosmetic.xlsx
+++ b/public/spritesheets/dunkbin_next_cosmetic.xlsx
@@ -901,7 +901,7 @@
         <v>42256416</v>
       </c>
       <c r="E12" t="str">
-        <v>259 days</v>
+        <v>260 days</v>
       </c>
       <c r="F12" t="str">
         <v/>
